--- a/data/Nom_Prenom.xlsx
+++ b/data/Nom_Prenom.xlsx
@@ -260,10 +260,10 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.74"/>
